--- a/eg1.xlsx
+++ b/eg1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shiqing/Desktop/CBF-BnB/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FC12B86-1303-B843-9BB4-D0209FD48E44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73B5B709-5DE5-444A-A270-5960015450B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19900" xr2:uid="{E6F8C12D-1DBD-D447-8BFA-CD4A720C84FC}"/>
   </bookViews>
@@ -475,7 +475,7 @@
   <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="138" zoomScaleNormal="152" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -989,15 +989,15 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <f ca="1">AVERAGE(OFFSET(A$2,(ROW()-$M$15)*4,0,4,1))</f>
+        <f t="shared" ref="A16:C18" ca="1" si="0">AVERAGE(OFFSET(A$2,(ROW()-$M$15)*4,0,4,1))</f>
         <v>2</v>
       </c>
       <c r="B16" s="1">
-        <f ca="1">AVERAGE(OFFSET(B$2,(ROW()-$M$15)*4,0,4,1))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0.5</v>
       </c>
       <c r="C16" s="1">
-        <f ca="1">AVERAGE(OFFSET(C$2,(ROW()-$M$15)*4,0,4,1))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
       <c r="D16" s="1" cm="1">
@@ -1009,11 +1009,11 @@
         <v>2.1776060433420898</v>
       </c>
       <c r="F16" s="1">
-        <f ca="1">AVERAGE(OFFSET(F$2,(ROW()-$M$15)*4,0,4,1))</f>
+        <f t="shared" ref="F16:G18" ca="1" si="1">AVERAGE(OFFSET(F$2,(ROW()-$M$15)*4,0,4,1))</f>
         <v>1</v>
       </c>
       <c r="G16" s="1">
-        <f ca="1">AVERAGE(OFFSET(G$2,(ROW()-$M$15)*4,0,4,1))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="H16" s="1" cm="1">
@@ -1039,15 +1039,15 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <f ca="1">AVERAGE(OFFSET(A$2,(ROW()-$M$15)*4,0,4,1))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>3</v>
       </c>
       <c r="B17" s="1">
-        <f ca="1">AVERAGE(OFFSET(B$2,(ROW()-$M$15)*4,0,4,1))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0.5</v>
       </c>
       <c r="C17" s="1">
-        <f ca="1">AVERAGE(OFFSET(C$2,(ROW()-$M$15)*4,0,4,1))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
       <c r="D17" s="1" cm="1">
@@ -1059,11 +1059,11 @@
         <v>4.3552120866841797</v>
       </c>
       <c r="F17" s="1">
-        <f ca="1">AVERAGE(OFFSET(F$2,(ROW()-$M$15)*4,0,4,1))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="G17" s="1">
-        <f ca="1">AVERAGE(OFFSET(G$2,(ROW()-$M$15)*4,0,4,1))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="H17" s="1" cm="1">
@@ -1089,15 +1089,15 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <f ca="1">AVERAGE(OFFSET(A$2,(ROW()-$M$15)*4,0,4,1))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>4</v>
       </c>
       <c r="B18" s="1">
-        <f ca="1">AVERAGE(OFFSET(B$2,(ROW()-$M$15)*4,0,4,1))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0.5</v>
       </c>
       <c r="C18" s="1">
-        <f ca="1">AVERAGE(OFFSET(C$2,(ROW()-$M$15)*4,0,4,1))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
       <c r="D18" s="1" cm="1">
@@ -1109,11 +1109,11 @@
         <v>6.5328181300262704</v>
       </c>
       <c r="F18" s="1">
-        <f ca="1">AVERAGE(OFFSET(F$2,(ROW()-$M$15)*4,0,4,1))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="G18" s="1">
-        <f ca="1">AVERAGE(OFFSET(G$2,(ROW()-$M$15)*4,0,4,1))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="H18" s="1" cm="1">

--- a/eg1.xlsx
+++ b/eg1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shiqing/Desktop/CBF-BnB/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73B5B709-5DE5-444A-A270-5960015450B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{205C82C8-5199-B74C-AB3F-8EAFAB014AF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19900" xr2:uid="{E6F8C12D-1DBD-D447-8BFA-CD4A720C84FC}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19860" xr2:uid="{E6F8C12D-1DBD-D447-8BFA-CD4A720C84FC}"/>
   </bookViews>
   <sheets>
     <sheet name="lr=3e-3 (120-30-1)" sheetId="38" r:id="rId1"/>
@@ -475,7 +475,7 @@
   <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="138" zoomScaleNormal="152" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -536,7 +536,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="1">
-        <v>0.64556250000000004</v>
+        <v>0.63356250000000003</v>
       </c>
       <c r="E2" s="1">
         <v>2.1776060433420898</v>
@@ -548,10 +548,10 @@
         <v>1</v>
       </c>
       <c r="H2" s="1">
-        <v>10.480676889419501</v>
+        <v>10.764452219009399</v>
       </c>
       <c r="I2" s="1">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="J2" s="1">
         <v>0</v>
@@ -571,7 +571,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="1">
-        <v>0.66956249999999995</v>
+        <v>0.63906249999999998</v>
       </c>
       <c r="E3" s="1">
         <v>2.1776060433420898</v>
@@ -583,10 +583,10 @@
         <v>1</v>
       </c>
       <c r="H3" s="1">
-        <v>10.832180261611899</v>
+        <v>10.6869986057281</v>
       </c>
       <c r="I3" s="1">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J3" s="1">
         <v>100</v>
@@ -606,7 +606,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="1">
-        <v>0.51124999999999998</v>
+        <v>0.62518750000000001</v>
       </c>
       <c r="E4" s="1">
         <v>2.1776060433420898</v>
@@ -618,10 +618,10 @@
         <v>1</v>
       </c>
       <c r="H4" s="1">
-        <v>10.7499952316284</v>
+        <v>10.701648473739599</v>
       </c>
       <c r="I4" s="1">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="J4" s="1">
         <v>200</v>
@@ -641,7 +641,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="1">
-        <v>0.65393749999999995</v>
+        <v>0.64893749999999994</v>
       </c>
       <c r="E5" s="1">
         <v>2.1776060433420898</v>
@@ -653,10 +653,10 @@
         <v>1</v>
       </c>
       <c r="H5" s="1">
-        <v>10.839230298995901</v>
+        <v>10.799834489822301</v>
       </c>
       <c r="I5" s="1">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J5" s="1">
         <v>300</v>
@@ -676,7 +676,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="1">
-        <v>0.6494375</v>
+        <v>0.66156250000000005</v>
       </c>
       <c r="E6" s="1">
         <v>4.3552120866841797</v>
@@ -688,10 +688,10 @@
         <v>1</v>
       </c>
       <c r="H6" s="1">
-        <v>12.8922898769378</v>
+        <v>13.1148474216461</v>
       </c>
       <c r="I6" s="1">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J6" s="1">
         <v>0</v>
@@ -711,7 +711,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="1">
-        <v>0.65774999999999995</v>
+        <v>0.65643750000000001</v>
       </c>
       <c r="E7" s="1">
         <v>4.3552120866841797</v>
@@ -723,10 +723,10 @@
         <v>1</v>
       </c>
       <c r="H7" s="1">
-        <v>13.1567063331604</v>
+        <v>13.219016075134199</v>
       </c>
       <c r="I7" s="1">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J7" s="1">
         <v>100</v>
@@ -746,7 +746,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="1">
-        <v>0.6620625</v>
+        <v>0.66812499999999997</v>
       </c>
       <c r="E8" s="1">
         <v>4.3552120866841797</v>
@@ -758,10 +758,10 @@
         <v>1</v>
       </c>
       <c r="H8" s="1">
-        <v>13.214759826660099</v>
+        <v>13.333851099014201</v>
       </c>
       <c r="I8" s="1">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="J8" s="1">
         <v>200</v>
@@ -781,7 +781,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="1">
-        <v>0.65843750000000001</v>
+        <v>0.6444375</v>
       </c>
       <c r="E9" s="1">
         <v>4.3552120866841797</v>
@@ -793,10 +793,10 @@
         <v>1</v>
       </c>
       <c r="H9" s="1">
-        <v>13.2005648612976</v>
+        <v>13.322651386260899</v>
       </c>
       <c r="I9" s="1">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="J9" s="1">
         <v>300</v>
@@ -816,7 +816,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="1">
-        <v>0.69137499999999996</v>
+        <v>0.6825</v>
       </c>
       <c r="E10" s="1">
         <v>6.5328181300262704</v>
@@ -828,10 +828,10 @@
         <v>1</v>
       </c>
       <c r="H10" s="1">
-        <v>15.6259741783142</v>
+        <v>15.6439754962921</v>
       </c>
       <c r="I10" s="1">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="J10" s="1">
         <v>0</v>
@@ -851,7 +851,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="1">
-        <v>0.64612499999999995</v>
+        <v>0.67093749999999996</v>
       </c>
       <c r="E11" s="1">
         <v>6.5328181300262704</v>
@@ -863,10 +863,10 @@
         <v>1</v>
       </c>
       <c r="H11" s="1">
-        <v>15.557179689407301</v>
+        <v>15.626730918884199</v>
       </c>
       <c r="I11" s="1">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="J11" s="1">
         <v>100</v>
@@ -886,7 +886,7 @@
         <v>1</v>
       </c>
       <c r="D12" s="1">
-        <v>0.66968749999999999</v>
+        <v>0.6836875</v>
       </c>
       <c r="E12" s="1">
         <v>6.5328181300262704</v>
@@ -898,10 +898,10 @@
         <v>1</v>
       </c>
       <c r="H12" s="1">
-        <v>15.599113464355399</v>
+        <v>16.6409575939178</v>
       </c>
       <c r="I12" s="1">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="J12" s="1">
         <v>200</v>
@@ -921,7 +921,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="1">
-        <v>0.6434375</v>
+        <v>0.69</v>
       </c>
       <c r="E13" s="1">
         <v>6.5328181300262704</v>
@@ -933,10 +933,10 @@
         <v>1</v>
       </c>
       <c r="H13" s="1">
-        <v>15.625553369522001</v>
+        <v>16.5330502986907</v>
       </c>
       <c r="I13" s="1">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J13" s="1">
         <v>300</v>
@@ -1002,7 +1002,7 @@
       </c>
       <c r="D16" s="1" cm="1">
         <f t="array" aca="1" ref="D16" ca="1">SUM(OFFSET($C$2,(ROW()-$M$15)*4,0,4,1)*OFFSET(D$2,(ROW()-$M$15)*4,0,4,1))/SUM(OFFSET($C$2,(ROW()-$M$15)*4,0,4,1))</f>
-        <v>0.62007812500000004</v>
+        <v>0.63668750000000007</v>
       </c>
       <c r="E16" s="1" cm="1">
         <f t="array" aca="1" ref="E16" ca="1">SUM(OFFSET($C$2,(ROW()-$M$15)*4,0,4,1)*OFFSET(E$2,(ROW()-$M$15)*4,0,4,1))/SUM(OFFSET($C$2,(ROW()-$M$15)*4,0,4,1))</f>
@@ -1018,11 +1018,11 @@
       </c>
       <c r="H16" s="1" cm="1">
         <f t="array" aca="1" ref="H16" ca="1">SUM(OFFSET($C$2,(ROW()-$M$15)*4,0,4,1)*OFFSET(H$2,(ROW()-$M$15)*4,0,4,1))/SUM(OFFSET($C$2,(ROW()-$M$15)*4,0,4,1))</f>
-        <v>10.725520670413925</v>
+        <v>10.738233447074851</v>
       </c>
       <c r="I16" s="1" cm="1">
         <f t="array" aca="1" ref="I16" ca="1">SUM(OFFSET($C$2,(ROW()-$M$15)*4,0,4,1)*OFFSET(I$2,(ROW()-$M$15)*4,0,4,1))/SUM(OFFSET($C$2,(ROW()-$M$15)*4,0,4,1))</f>
-        <v>84.5</v>
+        <v>81</v>
       </c>
       <c r="J16" s="1" cm="1">
         <f t="array" aca="1" ref="J16" ca="1">SUM(OFFSET($C$2,(ROW()-$M$15)*4,0,4,1)*OFFSET(J$2,(ROW()-$M$15)*4,0,4,1))/SUM(OFFSET($C$2,(ROW()-$M$15)*4,0,4,1))</f>
@@ -1034,7 +1034,7 @@
       </c>
       <c r="L16" s="1" cm="1">
         <f t="array" aca="1" ref="L16" ca="1">STDEV(OFFSET($C$2,(ROW()-$M$15)*4,0,4,1)*OFFSET(D$2,(ROW()-$M$15)*4,0,4,1))</f>
-        <v>7.3230628393423994E-2</v>
+        <v>9.9619066113537085E-3</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
@@ -1052,7 +1052,7 @@
       </c>
       <c r="D17" s="1" cm="1">
         <f t="array" aca="1" ref="D17" ca="1">SUM(OFFSET($C$2,(ROW()-$M$15)*4,0,4,1)*OFFSET(D$2,(ROW()-$M$15)*4,0,4,1))/SUM(OFFSET($C$2,(ROW()-$M$15)*4,0,4,1))</f>
-        <v>0.65692187499999999</v>
+        <v>0.65764062499999998</v>
       </c>
       <c r="E17" s="1" cm="1">
         <f t="array" aca="1" ref="E17" ca="1">SUM(OFFSET($C$2,(ROW()-$M$15)*4,0,4,1)*OFFSET(E$2,(ROW()-$M$15)*4,0,4,1))/SUM(OFFSET($C$2,(ROW()-$M$15)*4,0,4,1))</f>
@@ -1068,11 +1068,11 @@
       </c>
       <c r="H17" s="1" cm="1">
         <f t="array" aca="1" ref="H17" ca="1">SUM(OFFSET($C$2,(ROW()-$M$15)*4,0,4,1)*OFFSET(H$2,(ROW()-$M$15)*4,0,4,1))/SUM(OFFSET($C$2,(ROW()-$M$15)*4,0,4,1))</f>
-        <v>13.116080224513976</v>
+        <v>13.24759149551385</v>
       </c>
       <c r="I17" s="1" cm="1">
         <f t="array" aca="1" ref="I17" ca="1">SUM(OFFSET($C$2,(ROW()-$M$15)*4,0,4,1)*OFFSET(I$2,(ROW()-$M$15)*4,0,4,1))/SUM(OFFSET($C$2,(ROW()-$M$15)*4,0,4,1))</f>
-        <v>79.25</v>
+        <v>79.5</v>
       </c>
       <c r="J17" s="1" cm="1">
         <f t="array" aca="1" ref="J17" ca="1">SUM(OFFSET($C$2,(ROW()-$M$15)*4,0,4,1)*OFFSET(J$2,(ROW()-$M$15)*4,0,4,1))/SUM(OFFSET($C$2,(ROW()-$M$15)*4,0,4,1))</f>
@@ -1084,7 +1084,7 @@
       </c>
       <c r="L17" s="1" cm="1">
         <f t="array" aca="1" ref="L17" ca="1">STDEV(OFFSET($C$2,(ROW()-$M$15)*4,0,4,1)*OFFSET(D$2,(ROW()-$M$15)*4,0,4,1))</f>
-        <v>5.3361910475388059E-3</v>
+        <v>1.0017871400443972E-2</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
@@ -1102,7 +1102,7 @@
       </c>
       <c r="D18" s="1" cm="1">
         <f t="array" aca="1" ref="D18" ca="1">SUM(OFFSET($C$2,(ROW()-$M$15)*4,0,4,1)*OFFSET(D$2,(ROW()-$M$15)*4,0,4,1))/SUM(OFFSET($C$2,(ROW()-$M$15)*4,0,4,1))</f>
-        <v>0.66265624999999995</v>
+        <v>0.68178125000000001</v>
       </c>
       <c r="E18" s="1" cm="1">
         <f t="array" aca="1" ref="E18" ca="1">SUM(OFFSET($C$2,(ROW()-$M$15)*4,0,4,1)*OFFSET(E$2,(ROW()-$M$15)*4,0,4,1))/SUM(OFFSET($C$2,(ROW()-$M$15)*4,0,4,1))</f>
@@ -1118,11 +1118,11 @@
       </c>
       <c r="H18" s="1" cm="1">
         <f t="array" aca="1" ref="H18" ca="1">SUM(OFFSET($C$2,(ROW()-$M$15)*4,0,4,1)*OFFSET(H$2,(ROW()-$M$15)*4,0,4,1))/SUM(OFFSET($C$2,(ROW()-$M$15)*4,0,4,1))</f>
-        <v>15.601955175399725</v>
+        <v>16.111178576946198</v>
       </c>
       <c r="I18" s="1" cm="1">
         <f t="array" aca="1" ref="I18" ca="1">SUM(OFFSET($C$2,(ROW()-$M$15)*4,0,4,1)*OFFSET(I$2,(ROW()-$M$15)*4,0,4,1))/SUM(OFFSET($C$2,(ROW()-$M$15)*4,0,4,1))</f>
-        <v>84.5</v>
+        <v>82.5</v>
       </c>
       <c r="J18" s="1" cm="1">
         <f t="array" aca="1" ref="J18" ca="1">SUM(OFFSET($C$2,(ROW()-$M$15)*4,0,4,1)*OFFSET(J$2,(ROW()-$M$15)*4,0,4,1))/SUM(OFFSET($C$2,(ROW()-$M$15)*4,0,4,1))</f>
@@ -1134,7 +1134,7 @@
       </c>
       <c r="L18" s="1" cm="1">
         <f t="array" aca="1" ref="L18" ca="1">STDEV(OFFSET($C$2,(ROW()-$M$15)*4,0,4,1)*OFFSET(D$2,(ROW()-$M$15)*4,0,4,1))</f>
-        <v>2.2485904149414728E-2</v>
+        <v>7.9432393948145174E-3</v>
       </c>
     </row>
   </sheetData>

--- a/eg1.xlsx
+++ b/eg1.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shiqing/Desktop/CBF-BnB/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{205C82C8-5199-B74C-AB3F-8EAFAB014AF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E28E2D7D-361A-E043-9FBB-C8E1CC17FB2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19860" xr2:uid="{E6F8C12D-1DBD-D447-8BFA-CD4A720C84FC}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19860" activeTab="1" xr2:uid="{E6F8C12D-1DBD-D447-8BFA-CD4A720C84FC}"/>
   </bookViews>
   <sheets>
     <sheet name="lr=3e-3 (120-30-1)" sheetId="38" r:id="rId1"/>
+    <sheet name="lr=3e-3 (120-30-1) gamma" sheetId="39" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -58,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="12">
   <si>
     <t>num_layers</t>
   </si>
@@ -472,10 +473,1062 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{609EC4A8-3617-2D4D-B560-EF35FC73A967}">
-  <dimension ref="A1:M18"/>
+  <dimension ref="A1:M29"/>
+  <sheetViews>
+    <sheetView zoomScale="138" zoomScaleNormal="152" workbookViewId="0">
+      <selection activeCell="N28" sqref="N28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="12.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="1"/>
+    <col min="4" max="4" width="15.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" style="1"/>
+    <col min="6" max="6" width="13.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.83203125" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.63356250000000003</v>
+      </c>
+      <c r="E2" s="1">
+        <v>2.1776060433420898</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1">
+        <v>10.764452219009399</v>
+      </c>
+      <c r="I2" s="1">
+        <v>73</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.63906249999999998</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2.1776060433420898</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1">
+        <v>10.6869986057281</v>
+      </c>
+      <c r="I3" s="1">
+        <v>90</v>
+      </c>
+      <c r="J3" s="1">
+        <v>100</v>
+      </c>
+      <c r="K3" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.62518750000000001</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2.1776060433420898</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1">
+        <v>10.701648473739599</v>
+      </c>
+      <c r="I4" s="1">
+        <v>85</v>
+      </c>
+      <c r="J4" s="1">
+        <v>200</v>
+      </c>
+      <c r="K4" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.64893749999999994</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2.1776060433420898</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1">
+        <v>10.799834489822301</v>
+      </c>
+      <c r="I5" s="1">
+        <v>76</v>
+      </c>
+      <c r="J5" s="1">
+        <v>300</v>
+      </c>
+      <c r="K5" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.66156250000000005</v>
+      </c>
+      <c r="E6" s="1">
+        <v>4.3552120866841797</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1">
+        <v>13.1148474216461</v>
+      </c>
+      <c r="I6" s="1">
+        <v>77</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.65643750000000001</v>
+      </c>
+      <c r="E7" s="1">
+        <v>4.3552120866841797</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1">
+        <v>13.219016075134199</v>
+      </c>
+      <c r="I7" s="1">
+        <v>89</v>
+      </c>
+      <c r="J7" s="1">
+        <v>100</v>
+      </c>
+      <c r="K7" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>3</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.66812499999999997</v>
+      </c>
+      <c r="E8" s="1">
+        <v>4.3552120866841797</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1">
+        <v>13.333851099014201</v>
+      </c>
+      <c r="I8" s="1">
+        <v>74</v>
+      </c>
+      <c r="J8" s="1">
+        <v>200</v>
+      </c>
+      <c r="K8" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>3</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.6444375</v>
+      </c>
+      <c r="E9" s="1">
+        <v>4.3552120866841797</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1">
+        <v>13.322651386260899</v>
+      </c>
+      <c r="I9" s="1">
+        <v>78</v>
+      </c>
+      <c r="J9" s="1">
+        <v>300</v>
+      </c>
+      <c r="K9" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>4</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.6825</v>
+      </c>
+      <c r="E10" s="1">
+        <v>6.5328181300262704</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1">
+        <v>15.6439754962921</v>
+      </c>
+      <c r="I10" s="1">
+        <v>76</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0</v>
+      </c>
+      <c r="K10" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>4</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.67093749999999996</v>
+      </c>
+      <c r="E11" s="1">
+        <v>6.5328181300262704</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1</v>
+      </c>
+      <c r="H11" s="1">
+        <v>15.626730918884199</v>
+      </c>
+      <c r="I11" s="1">
+        <v>86</v>
+      </c>
+      <c r="J11" s="1">
+        <v>100</v>
+      </c>
+      <c r="K11" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>4</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.6836875</v>
+      </c>
+      <c r="E12" s="1">
+        <v>6.5328181300262704</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1</v>
+      </c>
+      <c r="H12" s="1">
+        <v>16.6409575939178</v>
+      </c>
+      <c r="I12" s="1">
+        <v>80</v>
+      </c>
+      <c r="J12" s="1">
+        <v>200</v>
+      </c>
+      <c r="K12" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>4</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.69</v>
+      </c>
+      <c r="E13" s="1">
+        <v>6.5328181300262704</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1</v>
+      </c>
+      <c r="G13" s="1">
+        <v>1</v>
+      </c>
+      <c r="H13" s="1">
+        <v>16.5330502986907</v>
+      </c>
+      <c r="I13" s="1">
+        <v>88</v>
+      </c>
+      <c r="J13" s="1">
+        <v>300</v>
+      </c>
+      <c r="K13" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>2</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.69881249999999995</v>
+      </c>
+      <c r="E14" s="1">
+        <v>6.1592000000000002</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
+      <c r="G14" s="1">
+        <v>1</v>
+      </c>
+      <c r="H14" s="1">
+        <v>10.747055292129501</v>
+      </c>
+      <c r="I14" s="1">
+        <v>83</v>
+      </c>
+      <c r="J14" s="1">
+        <v>0</v>
+      </c>
+      <c r="K14" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>2</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.64175000000000004</v>
+      </c>
+      <c r="E15" s="1">
+        <v>6.1592000000000002</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1</v>
+      </c>
+      <c r="G15" s="1">
+        <v>1</v>
+      </c>
+      <c r="H15" s="1">
+        <v>10.6624898910522</v>
+      </c>
+      <c r="I15" s="1">
+        <v>88</v>
+      </c>
+      <c r="J15" s="1">
+        <v>100</v>
+      </c>
+      <c r="K15" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>2</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.68</v>
+      </c>
+      <c r="E16" s="1">
+        <v>6.1592000000000002</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1</v>
+      </c>
+      <c r="G16" s="1">
+        <v>1</v>
+      </c>
+      <c r="H16" s="1">
+        <v>10.6507520675659</v>
+      </c>
+      <c r="I16" s="1">
+        <v>75</v>
+      </c>
+      <c r="J16" s="1">
+        <v>200</v>
+      </c>
+      <c r="K16" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>2</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.65212499999999995</v>
+      </c>
+      <c r="E17" s="1">
+        <v>6.1592000000000002</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1</v>
+      </c>
+      <c r="G17" s="1">
+        <v>1</v>
+      </c>
+      <c r="H17" s="1">
+        <v>10.303591012954699</v>
+      </c>
+      <c r="I17" s="1">
+        <v>73</v>
+      </c>
+      <c r="J17" s="1">
+        <v>300</v>
+      </c>
+      <c r="K17" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>2</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0.68274999999999997</v>
+      </c>
+      <c r="E18" s="1">
+        <v>17.420848346736701</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1</v>
+      </c>
+      <c r="G18" s="1">
+        <v>1</v>
+      </c>
+      <c r="H18" s="1">
+        <v>10.7859578132629</v>
+      </c>
+      <c r="I18" s="1">
+        <v>93</v>
+      </c>
+      <c r="J18" s="1">
+        <v>0</v>
+      </c>
+      <c r="K18" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>2</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0.68687500000000001</v>
+      </c>
+      <c r="E19" s="1">
+        <v>17.420848346736701</v>
+      </c>
+      <c r="F19" s="1">
+        <v>1</v>
+      </c>
+      <c r="G19" s="1">
+        <v>1</v>
+      </c>
+      <c r="H19" s="1">
+        <v>10.8275940418243</v>
+      </c>
+      <c r="I19" s="1">
+        <v>91</v>
+      </c>
+      <c r="J19" s="1">
+        <v>100</v>
+      </c>
+      <c r="K19" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>2</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0.67806250000000001</v>
+      </c>
+      <c r="E20" s="1">
+        <v>17.420848346736701</v>
+      </c>
+      <c r="F20" s="1">
+        <v>1</v>
+      </c>
+      <c r="G20" s="1">
+        <v>1</v>
+      </c>
+      <c r="H20" s="1">
+        <v>10.690744876861499</v>
+      </c>
+      <c r="I20" s="1">
+        <v>97</v>
+      </c>
+      <c r="J20" s="1">
+        <v>200</v>
+      </c>
+      <c r="K20" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>2</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0.68556249999999996</v>
+      </c>
+      <c r="E21" s="1">
+        <v>17.420848346736701</v>
+      </c>
+      <c r="F21" s="1">
+        <v>1</v>
+      </c>
+      <c r="G21" s="1">
+        <v>1</v>
+      </c>
+      <c r="H21" s="1">
+        <v>10.8039178848266</v>
+      </c>
+      <c r="I21" s="1">
+        <v>79</v>
+      </c>
+      <c r="J21" s="1">
+        <v>300</v>
+      </c>
+      <c r="K21" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M24" s="1">
+        <f>ROW()+1</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <f ca="1">AVERAGE(OFFSET(A$2,(ROW()-$M$24)*4,0,4,1))</f>
+        <v>2</v>
+      </c>
+      <c r="B25" s="1">
+        <f ca="1">AVERAGE(OFFSET(B$2,(ROW()-$M$24)*4,0,4,1))</f>
+        <v>0.5</v>
+      </c>
+      <c r="C25" s="1">
+        <f ca="1">AVERAGE(OFFSET(C$2,(ROW()-$M$24)*4,0,4,1))</f>
+        <v>1</v>
+      </c>
+      <c r="D25" s="1" cm="1">
+        <f t="array" aca="1" ref="D25" ca="1">SUM(OFFSET($C$2,(ROW()-$M$24)*4,0,4,1)*OFFSET(D$2,(ROW()-$M$24)*4,0,4,1))/SUM(OFFSET($C$2,(ROW()-$M$24)*4,0,4,1))</f>
+        <v>0.63668750000000007</v>
+      </c>
+      <c r="E25" s="1" cm="1">
+        <f t="array" aca="1" ref="E25" ca="1">SUM(OFFSET($C$2,(ROW()-$M$24)*4,0,4,1)*OFFSET(E$2,(ROW()-$M$24)*4,0,4,1))/SUM(OFFSET($C$2,(ROW()-$M$24)*4,0,4,1))</f>
+        <v>2.1776060433420898</v>
+      </c>
+      <c r="F25" s="1">
+        <f ca="1">AVERAGE(OFFSET(F$2,(ROW()-$M$24)*4,0,4,1))</f>
+        <v>1</v>
+      </c>
+      <c r="G25" s="1">
+        <f ca="1">AVERAGE(OFFSET(G$2,(ROW()-$M$24)*4,0,4,1))</f>
+        <v>1</v>
+      </c>
+      <c r="H25" s="1" cm="1">
+        <f t="array" aca="1" ref="H25" ca="1">SUM(OFFSET($C$2,(ROW()-$M$24)*4,0,4,1)*OFFSET(H$2,(ROW()-$M$24)*4,0,4,1))/SUM(OFFSET($C$2,(ROW()-$M$24)*4,0,4,1))</f>
+        <v>10.738233447074851</v>
+      </c>
+      <c r="I25" s="1" cm="1">
+        <f t="array" aca="1" ref="I25" ca="1">SUM(OFFSET($C$2,(ROW()-$M$24)*4,0,4,1)*OFFSET(I$2,(ROW()-$M$24)*4,0,4,1))/SUM(OFFSET($C$2,(ROW()-$M$24)*4,0,4,1))</f>
+        <v>81</v>
+      </c>
+      <c r="J25" s="1" cm="1">
+        <f t="array" aca="1" ref="J25" ca="1">SUM(OFFSET($C$2,(ROW()-$M$24)*4,0,4,1)*OFFSET(J$2,(ROW()-$M$24)*4,0,4,1))/SUM(OFFSET($C$2,(ROW()-$M$24)*4,0,4,1))</f>
+        <v>150</v>
+      </c>
+      <c r="K25" s="1">
+        <f ca="1">AVERAGE(OFFSET(K$2,(ROW()-$M$24)*4,0,4,1))</f>
+        <v>2.5</v>
+      </c>
+      <c r="L25" s="1" cm="1">
+        <f t="array" aca="1" ref="L25" ca="1">STDEV(OFFSET($C$2,(ROW()-$M$24)*4,0,4,1)*OFFSET(D$2,(ROW()-$M$24)*4,0,4,1))</f>
+        <v>9.9619066113537085E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <f ca="1">AVERAGE(OFFSET(A$2,(ROW()-$M$24)*4,0,4,1))</f>
+        <v>3</v>
+      </c>
+      <c r="B26" s="1">
+        <f ca="1">AVERAGE(OFFSET(B$2,(ROW()-$M$24)*4,0,4,1))</f>
+        <v>0.5</v>
+      </c>
+      <c r="C26" s="1">
+        <f ca="1">AVERAGE(OFFSET(C$2,(ROW()-$M$24)*4,0,4,1))</f>
+        <v>1</v>
+      </c>
+      <c r="D26" s="1" cm="1">
+        <f t="array" aca="1" ref="D26" ca="1">SUM(OFFSET($C$2,(ROW()-$M$24)*4,0,4,1)*OFFSET(D$2,(ROW()-$M$24)*4,0,4,1))/SUM(OFFSET($C$2,(ROW()-$M$24)*4,0,4,1))</f>
+        <v>0.65764062499999998</v>
+      </c>
+      <c r="E26" s="1" cm="1">
+        <f t="array" aca="1" ref="E26" ca="1">SUM(OFFSET($C$2,(ROW()-$M$24)*4,0,4,1)*OFFSET(E$2,(ROW()-$M$24)*4,0,4,1))/SUM(OFFSET($C$2,(ROW()-$M$24)*4,0,4,1))</f>
+        <v>4.3552120866841797</v>
+      </c>
+      <c r="F26" s="1">
+        <f ca="1">AVERAGE(OFFSET(F$2,(ROW()-$M$24)*4,0,4,1))</f>
+        <v>1</v>
+      </c>
+      <c r="G26" s="1">
+        <f ca="1">AVERAGE(OFFSET(G$2,(ROW()-$M$24)*4,0,4,1))</f>
+        <v>1</v>
+      </c>
+      <c r="H26" s="1" cm="1">
+        <f t="array" aca="1" ref="H26" ca="1">SUM(OFFSET($C$2,(ROW()-$M$24)*4,0,4,1)*OFFSET(H$2,(ROW()-$M$24)*4,0,4,1))/SUM(OFFSET($C$2,(ROW()-$M$24)*4,0,4,1))</f>
+        <v>13.24759149551385</v>
+      </c>
+      <c r="I26" s="1" cm="1">
+        <f t="array" aca="1" ref="I26" ca="1">SUM(OFFSET($C$2,(ROW()-$M$24)*4,0,4,1)*OFFSET(I$2,(ROW()-$M$24)*4,0,4,1))/SUM(OFFSET($C$2,(ROW()-$M$24)*4,0,4,1))</f>
+        <v>79.5</v>
+      </c>
+      <c r="J26" s="1" cm="1">
+        <f t="array" aca="1" ref="J26" ca="1">SUM(OFFSET($C$2,(ROW()-$M$24)*4,0,4,1)*OFFSET(J$2,(ROW()-$M$24)*4,0,4,1))/SUM(OFFSET($C$2,(ROW()-$M$24)*4,0,4,1))</f>
+        <v>150</v>
+      </c>
+      <c r="K26" s="1">
+        <f ca="1">AVERAGE(OFFSET(K$2,(ROW()-$M$24)*4,0,4,1))</f>
+        <v>6.5</v>
+      </c>
+      <c r="L26" s="1" cm="1">
+        <f t="array" aca="1" ref="L26" ca="1">STDEV(OFFSET($C$2,(ROW()-$M$24)*4,0,4,1)*OFFSET(D$2,(ROW()-$M$24)*4,0,4,1))</f>
+        <v>1.0017871400443972E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <f ca="1">AVERAGE(OFFSET(A$2,(ROW()-$M$24)*4,0,4,1))</f>
+        <v>4</v>
+      </c>
+      <c r="B27" s="1">
+        <f ca="1">AVERAGE(OFFSET(B$2,(ROW()-$M$24)*4,0,4,1))</f>
+        <v>0.5</v>
+      </c>
+      <c r="C27" s="1">
+        <f ca="1">AVERAGE(OFFSET(C$2,(ROW()-$M$24)*4,0,4,1))</f>
+        <v>1</v>
+      </c>
+      <c r="D27" s="1" cm="1">
+        <f t="array" aca="1" ref="D27" ca="1">SUM(OFFSET($C$2,(ROW()-$M$24)*4,0,4,1)*OFFSET(D$2,(ROW()-$M$24)*4,0,4,1))/SUM(OFFSET($C$2,(ROW()-$M$24)*4,0,4,1))</f>
+        <v>0.68178125000000001</v>
+      </c>
+      <c r="E27" s="1" cm="1">
+        <f t="array" aca="1" ref="E27" ca="1">SUM(OFFSET($C$2,(ROW()-$M$24)*4,0,4,1)*OFFSET(E$2,(ROW()-$M$24)*4,0,4,1))/SUM(OFFSET($C$2,(ROW()-$M$24)*4,0,4,1))</f>
+        <v>6.5328181300262704</v>
+      </c>
+      <c r="F27" s="1">
+        <f ca="1">AVERAGE(OFFSET(F$2,(ROW()-$M$24)*4,0,4,1))</f>
+        <v>1</v>
+      </c>
+      <c r="G27" s="1">
+        <f ca="1">AVERAGE(OFFSET(G$2,(ROW()-$M$24)*4,0,4,1))</f>
+        <v>1</v>
+      </c>
+      <c r="H27" s="1" cm="1">
+        <f t="array" aca="1" ref="H27" ca="1">SUM(OFFSET($C$2,(ROW()-$M$24)*4,0,4,1)*OFFSET(H$2,(ROW()-$M$24)*4,0,4,1))/SUM(OFFSET($C$2,(ROW()-$M$24)*4,0,4,1))</f>
+        <v>16.111178576946198</v>
+      </c>
+      <c r="I27" s="1" cm="1">
+        <f t="array" aca="1" ref="I27" ca="1">SUM(OFFSET($C$2,(ROW()-$M$24)*4,0,4,1)*OFFSET(I$2,(ROW()-$M$24)*4,0,4,1))/SUM(OFFSET($C$2,(ROW()-$M$24)*4,0,4,1))</f>
+        <v>82.5</v>
+      </c>
+      <c r="J27" s="1" cm="1">
+        <f t="array" aca="1" ref="J27" ca="1">SUM(OFFSET($C$2,(ROW()-$M$24)*4,0,4,1)*OFFSET(J$2,(ROW()-$M$24)*4,0,4,1))/SUM(OFFSET($C$2,(ROW()-$M$24)*4,0,4,1))</f>
+        <v>150</v>
+      </c>
+      <c r="K27" s="1">
+        <f ca="1">AVERAGE(OFFSET(K$2,(ROW()-$M$24)*4,0,4,1))</f>
+        <v>10.5</v>
+      </c>
+      <c r="L27" s="1" cm="1">
+        <f t="array" aca="1" ref="L27" ca="1">STDEV(OFFSET($C$2,(ROW()-$M$24)*4,0,4,1)*OFFSET(D$2,(ROW()-$M$24)*4,0,4,1))</f>
+        <v>7.9432393948145174E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <f t="shared" ref="A28:C29" ca="1" si="0">AVERAGE(OFFSET(A$2,(ROW()-$M$24)*4,0,4,1))</f>
+        <v>2</v>
+      </c>
+      <c r="B28" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="C28" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D28" s="1" cm="1">
+        <f t="array" aca="1" ref="D28" ca="1">SUM(OFFSET($C$2,(ROW()-$M$24)*4,0,4,1)*OFFSET(D$2,(ROW()-$M$24)*4,0,4,1))/SUM(OFFSET($C$2,(ROW()-$M$24)*4,0,4,1))</f>
+        <v>0.66817187499999997</v>
+      </c>
+      <c r="E28" s="1" cm="1">
+        <f t="array" aca="1" ref="E28" ca="1">SUM(OFFSET($C$2,(ROW()-$M$24)*4,0,4,1)*OFFSET(E$2,(ROW()-$M$24)*4,0,4,1))/SUM(OFFSET($C$2,(ROW()-$M$24)*4,0,4,1))</f>
+        <v>6.1592000000000002</v>
+      </c>
+      <c r="F28" s="1">
+        <f t="shared" ref="F28:G29" ca="1" si="1">AVERAGE(OFFSET(F$2,(ROW()-$M$24)*4,0,4,1))</f>
+        <v>1</v>
+      </c>
+      <c r="G28" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H28" s="1" cm="1">
+        <f t="array" aca="1" ref="H28" ca="1">SUM(OFFSET($C$2,(ROW()-$M$24)*4,0,4,1)*OFFSET(H$2,(ROW()-$M$24)*4,0,4,1))/SUM(OFFSET($C$2,(ROW()-$M$24)*4,0,4,1))</f>
+        <v>10.590972065925573</v>
+      </c>
+      <c r="I28" s="1" cm="1">
+        <f t="array" aca="1" ref="I28" ca="1">SUM(OFFSET($C$2,(ROW()-$M$24)*4,0,4,1)*OFFSET(I$2,(ROW()-$M$24)*4,0,4,1))/SUM(OFFSET($C$2,(ROW()-$M$24)*4,0,4,1))</f>
+        <v>79.75</v>
+      </c>
+      <c r="J28" s="1" cm="1">
+        <f t="array" aca="1" ref="J28" ca="1">SUM(OFFSET($C$2,(ROW()-$M$24)*4,0,4,1)*OFFSET(J$2,(ROW()-$M$24)*4,0,4,1))/SUM(OFFSET($C$2,(ROW()-$M$24)*4,0,4,1))</f>
+        <v>150</v>
+      </c>
+      <c r="K28" s="1">
+        <f t="shared" ref="K28:K29" ca="1" si="2">AVERAGE(OFFSET(K$2,(ROW()-$M$24)*4,0,4,1))</f>
+        <v>14.5</v>
+      </c>
+      <c r="L28" s="1" cm="1">
+        <f t="array" aca="1" ref="L28" ca="1">STDEV(OFFSET($C$2,(ROW()-$M$24)*4,0,4,1)*OFFSET(D$2,(ROW()-$M$24)*4,0,4,1))</f>
+        <v>2.6040802068980757E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B29" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="C29" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D29" s="1" cm="1">
+        <f t="array" aca="1" ref="D29" ca="1">SUM(OFFSET($C$2,(ROW()-$M$24)*4,0,4,1)*OFFSET(D$2,(ROW()-$M$24)*4,0,4,1))/SUM(OFFSET($C$2,(ROW()-$M$24)*4,0,4,1))</f>
+        <v>0.6833125000000001</v>
+      </c>
+      <c r="E29" s="1" cm="1">
+        <f t="array" aca="1" ref="E29" ca="1">SUM(OFFSET($C$2,(ROW()-$M$24)*4,0,4,1)*OFFSET(E$2,(ROW()-$M$24)*4,0,4,1))/SUM(OFFSET($C$2,(ROW()-$M$24)*4,0,4,1))</f>
+        <v>17.420848346736701</v>
+      </c>
+      <c r="F29" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G29" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H29" s="1" cm="1">
+        <f t="array" aca="1" ref="H29" ca="1">SUM(OFFSET($C$2,(ROW()-$M$24)*4,0,4,1)*OFFSET(H$2,(ROW()-$M$24)*4,0,4,1))/SUM(OFFSET($C$2,(ROW()-$M$24)*4,0,4,1))</f>
+        <v>10.777053654193825</v>
+      </c>
+      <c r="I29" s="1" cm="1">
+        <f t="array" aca="1" ref="I29" ca="1">SUM(OFFSET($C$2,(ROW()-$M$24)*4,0,4,1)*OFFSET(I$2,(ROW()-$M$24)*4,0,4,1))/SUM(OFFSET($C$2,(ROW()-$M$24)*4,0,4,1))</f>
+        <v>90</v>
+      </c>
+      <c r="J29" s="1" cm="1">
+        <f t="array" aca="1" ref="J29" ca="1">SUM(OFFSET($C$2,(ROW()-$M$24)*4,0,4,1)*OFFSET(J$2,(ROW()-$M$24)*4,0,4,1))/SUM(OFFSET($C$2,(ROW()-$M$24)*4,0,4,1))</f>
+        <v>150</v>
+      </c>
+      <c r="K29" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>18.5</v>
+      </c>
+      <c r="L29" s="1" cm="1">
+        <f t="array" aca="1" ref="L29" ca="1">STDEV(OFFSET($C$2,(ROW()-$M$24)*4,0,4,1)*OFFSET(D$2,(ROW()-$M$24)*4,0,4,1))</f>
+        <v>3.9001201904556668E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{763B6468-5BAE-DE4C-8E00-774961F23CBB}">
+  <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="138" zoomScaleNormal="152" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD12"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -667,7 +1720,7 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6" s="1">
         <v>0.5</v>
@@ -676,10 +1729,10 @@
         <v>1</v>
       </c>
       <c r="D6" s="1">
-        <v>0.66156250000000005</v>
+        <v>0.69881249999999995</v>
       </c>
       <c r="E6" s="1">
-        <v>4.3552120866841797</v>
+        <v>6.1592000000000002</v>
       </c>
       <c r="F6" s="1">
         <v>1</v>
@@ -688,21 +1741,21 @@
         <v>1</v>
       </c>
       <c r="H6" s="1">
-        <v>13.1148474216461</v>
+        <v>10.747055292129501</v>
       </c>
       <c r="I6" s="1">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="J6" s="1">
         <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7" s="1">
         <v>0.5</v>
@@ -711,10 +1764,10 @@
         <v>1</v>
       </c>
       <c r="D7" s="1">
-        <v>0.65643750000000001</v>
+        <v>0.64175000000000004</v>
       </c>
       <c r="E7" s="1">
-        <v>4.3552120866841797</v>
+        <v>6.1592000000000002</v>
       </c>
       <c r="F7" s="1">
         <v>1</v>
@@ -723,21 +1776,21 @@
         <v>1</v>
       </c>
       <c r="H7" s="1">
-        <v>13.219016075134199</v>
+        <v>10.6624898910522</v>
       </c>
       <c r="I7" s="1">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J7" s="1">
         <v>100</v>
       </c>
       <c r="K7" s="1">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B8" s="1">
         <v>0.5</v>
@@ -746,10 +1799,10 @@
         <v>1</v>
       </c>
       <c r="D8" s="1">
-        <v>0.66812499999999997</v>
+        <v>0.68</v>
       </c>
       <c r="E8" s="1">
-        <v>4.3552120866841797</v>
+        <v>6.1592000000000002</v>
       </c>
       <c r="F8" s="1">
         <v>1</v>
@@ -758,21 +1811,21 @@
         <v>1</v>
       </c>
       <c r="H8" s="1">
-        <v>13.333851099014201</v>
+        <v>10.6507520675659</v>
       </c>
       <c r="I8" s="1">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J8" s="1">
         <v>200</v>
       </c>
       <c r="K8" s="1">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B9" s="1">
         <v>0.5</v>
@@ -781,10 +1834,10 @@
         <v>1</v>
       </c>
       <c r="D9" s="1">
-        <v>0.6444375</v>
+        <v>0.65212499999999995</v>
       </c>
       <c r="E9" s="1">
-        <v>4.3552120866841797</v>
+        <v>6.1592000000000002</v>
       </c>
       <c r="F9" s="1">
         <v>1</v>
@@ -793,21 +1846,21 @@
         <v>1</v>
       </c>
       <c r="H9" s="1">
-        <v>13.322651386260899</v>
+        <v>10.303591012954699</v>
       </c>
       <c r="I9" s="1">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="J9" s="1">
         <v>300</v>
       </c>
       <c r="K9" s="1">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B10" s="1">
         <v>0.5</v>
@@ -816,10 +1869,10 @@
         <v>1</v>
       </c>
       <c r="D10" s="1">
-        <v>0.6825</v>
+        <v>0.68274999999999997</v>
       </c>
       <c r="E10" s="1">
-        <v>6.5328181300262704</v>
+        <v>17.420848346736701</v>
       </c>
       <c r="F10" s="1">
         <v>1</v>
@@ -828,21 +1881,21 @@
         <v>1</v>
       </c>
       <c r="H10" s="1">
-        <v>15.6439754962921</v>
+        <v>10.7859578132629</v>
       </c>
       <c r="I10" s="1">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="J10" s="1">
         <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B11" s="1">
         <v>0.5</v>
@@ -851,10 +1904,10 @@
         <v>1</v>
       </c>
       <c r="D11" s="1">
-        <v>0.67093749999999996</v>
+        <v>0.68687500000000001</v>
       </c>
       <c r="E11" s="1">
-        <v>6.5328181300262704</v>
+        <v>17.420848346736701</v>
       </c>
       <c r="F11" s="1">
         <v>1</v>
@@ -863,21 +1916,21 @@
         <v>1</v>
       </c>
       <c r="H11" s="1">
-        <v>15.626730918884199</v>
+        <v>10.8275940418243</v>
       </c>
       <c r="I11" s="1">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="J11" s="1">
         <v>100</v>
       </c>
       <c r="K11" s="1">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B12" s="1">
         <v>0.5</v>
@@ -886,10 +1939,10 @@
         <v>1</v>
       </c>
       <c r="D12" s="1">
-        <v>0.6836875</v>
+        <v>0.67806250000000001</v>
       </c>
       <c r="E12" s="1">
-        <v>6.5328181300262704</v>
+        <v>17.420848346736701</v>
       </c>
       <c r="F12" s="1">
         <v>1</v>
@@ -898,21 +1951,21 @@
         <v>1</v>
       </c>
       <c r="H12" s="1">
-        <v>16.6409575939178</v>
+        <v>10.690744876861499</v>
       </c>
       <c r="I12" s="1">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="J12" s="1">
         <v>200</v>
       </c>
       <c r="K12" s="1">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B13" s="1">
         <v>0.5</v>
@@ -921,10 +1974,10 @@
         <v>1</v>
       </c>
       <c r="D13" s="1">
-        <v>0.69</v>
+        <v>0.68556249999999996</v>
       </c>
       <c r="E13" s="1">
-        <v>6.5328181300262704</v>
+        <v>17.420848346736701</v>
       </c>
       <c r="F13" s="1">
         <v>1</v>
@@ -933,208 +1986,208 @@
         <v>1</v>
       </c>
       <c r="H13" s="1">
-        <v>16.5330502986907</v>
+        <v>10.8039178848266</v>
       </c>
       <c r="I13" s="1">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J13" s="1">
         <v>300</v>
       </c>
       <c r="K13" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D15" s="1" t="s">
+      <c r="C16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F16" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="G16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="H16" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="I16" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J15" s="1" t="s">
+      <c r="J16" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="K15" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="L15" s="1" t="s">
+      <c r="K16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L16" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M15" s="1">
+      <c r="M16" s="1">
         <f>ROW()+1</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
-        <f t="shared" ref="A16:C18" ca="1" si="0">AVERAGE(OFFSET(A$2,(ROW()-$M$15)*4,0,4,1))</f>
-        <v>2</v>
-      </c>
-      <c r="B16" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="C16" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D16" s="1" cm="1">
-        <f t="array" aca="1" ref="D16" ca="1">SUM(OFFSET($C$2,(ROW()-$M$15)*4,0,4,1)*OFFSET(D$2,(ROW()-$M$15)*4,0,4,1))/SUM(OFFSET($C$2,(ROW()-$M$15)*4,0,4,1))</f>
-        <v>0.63668750000000007</v>
-      </c>
-      <c r="E16" s="1" cm="1">
-        <f t="array" aca="1" ref="E16" ca="1">SUM(OFFSET($C$2,(ROW()-$M$15)*4,0,4,1)*OFFSET(E$2,(ROW()-$M$15)*4,0,4,1))/SUM(OFFSET($C$2,(ROW()-$M$15)*4,0,4,1))</f>
-        <v>2.1776060433420898</v>
-      </c>
-      <c r="F16" s="1">
-        <f t="shared" ref="F16:G18" ca="1" si="1">AVERAGE(OFFSET(F$2,(ROW()-$M$15)*4,0,4,1))</f>
-        <v>1</v>
-      </c>
-      <c r="G16" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="H16" s="1" cm="1">
-        <f t="array" aca="1" ref="H16" ca="1">SUM(OFFSET($C$2,(ROW()-$M$15)*4,0,4,1)*OFFSET(H$2,(ROW()-$M$15)*4,0,4,1))/SUM(OFFSET($C$2,(ROW()-$M$15)*4,0,4,1))</f>
-        <v>10.738233447074851</v>
-      </c>
-      <c r="I16" s="1" cm="1">
-        <f t="array" aca="1" ref="I16" ca="1">SUM(OFFSET($C$2,(ROW()-$M$15)*4,0,4,1)*OFFSET(I$2,(ROW()-$M$15)*4,0,4,1))/SUM(OFFSET($C$2,(ROW()-$M$15)*4,0,4,1))</f>
-        <v>81</v>
-      </c>
-      <c r="J16" s="1" cm="1">
-        <f t="array" aca="1" ref="J16" ca="1">SUM(OFFSET($C$2,(ROW()-$M$15)*4,0,4,1)*OFFSET(J$2,(ROW()-$M$15)*4,0,4,1))/SUM(OFFSET($C$2,(ROW()-$M$15)*4,0,4,1))</f>
-        <v>150</v>
-      </c>
-      <c r="K16" s="1">
-        <f ca="1">AVERAGE(OFFSET(K$2,(ROW()-$M$15)*4,0,4,1))</f>
-        <v>2.5</v>
-      </c>
-      <c r="L16" s="1" cm="1">
-        <f t="array" aca="1" ref="L16" ca="1">STDEV(OFFSET($C$2,(ROW()-$M$15)*4,0,4,1)*OFFSET(D$2,(ROW()-$M$15)*4,0,4,1))</f>
-        <v>9.9619066113537085E-3</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <f ca="1">AVERAGE(OFFSET(A$2,(ROW()-$M$16)*4,0,4,1))</f>
+        <v>2</v>
       </c>
       <c r="B17" s="1">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">AVERAGE(OFFSET(B$2,(ROW()-$M$16)*4,0,4,1))</f>
         <v>0.5</v>
       </c>
       <c r="C17" s="1">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">AVERAGE(OFFSET(C$2,(ROW()-$M$16)*4,0,4,1))</f>
         <v>1</v>
       </c>
       <c r="D17" s="1" cm="1">
-        <f t="array" aca="1" ref="D17" ca="1">SUM(OFFSET($C$2,(ROW()-$M$15)*4,0,4,1)*OFFSET(D$2,(ROW()-$M$15)*4,0,4,1))/SUM(OFFSET($C$2,(ROW()-$M$15)*4,0,4,1))</f>
-        <v>0.65764062499999998</v>
+        <f t="array" aca="1" ref="D17" ca="1">SUM(OFFSET($C$2,(ROW()-$M$16)*4,0,4,1)*OFFSET(D$2,(ROW()-$M$16)*4,0,4,1))/SUM(OFFSET($C$2,(ROW()-$M$16)*4,0,4,1))</f>
+        <v>0.63668750000000007</v>
       </c>
       <c r="E17" s="1" cm="1">
-        <f t="array" aca="1" ref="E17" ca="1">SUM(OFFSET($C$2,(ROW()-$M$15)*4,0,4,1)*OFFSET(E$2,(ROW()-$M$15)*4,0,4,1))/SUM(OFFSET($C$2,(ROW()-$M$15)*4,0,4,1))</f>
-        <v>4.3552120866841797</v>
+        <f t="array" aca="1" ref="E17" ca="1">SUM(OFFSET($C$2,(ROW()-$M$16)*4,0,4,1)*OFFSET(E$2,(ROW()-$M$16)*4,0,4,1))/SUM(OFFSET($C$2,(ROW()-$M$16)*4,0,4,1))</f>
+        <v>2.1776060433420898</v>
       </c>
       <c r="F17" s="1">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">AVERAGE(OFFSET(F$2,(ROW()-$M$16)*4,0,4,1))</f>
         <v>1</v>
       </c>
       <c r="G17" s="1">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">AVERAGE(OFFSET(G$2,(ROW()-$M$16)*4,0,4,1))</f>
         <v>1</v>
       </c>
       <c r="H17" s="1" cm="1">
-        <f t="array" aca="1" ref="H17" ca="1">SUM(OFFSET($C$2,(ROW()-$M$15)*4,0,4,1)*OFFSET(H$2,(ROW()-$M$15)*4,0,4,1))/SUM(OFFSET($C$2,(ROW()-$M$15)*4,0,4,1))</f>
-        <v>13.24759149551385</v>
+        <f t="array" aca="1" ref="H17" ca="1">SUM(OFFSET($C$2,(ROW()-$M$16)*4,0,4,1)*OFFSET(H$2,(ROW()-$M$16)*4,0,4,1))/SUM(OFFSET($C$2,(ROW()-$M$16)*4,0,4,1))</f>
+        <v>10.738233447074851</v>
       </c>
       <c r="I17" s="1" cm="1">
-        <f t="array" aca="1" ref="I17" ca="1">SUM(OFFSET($C$2,(ROW()-$M$15)*4,0,4,1)*OFFSET(I$2,(ROW()-$M$15)*4,0,4,1))/SUM(OFFSET($C$2,(ROW()-$M$15)*4,0,4,1))</f>
-        <v>79.5</v>
+        <f t="array" aca="1" ref="I17" ca="1">SUM(OFFSET($C$2,(ROW()-$M$16)*4,0,4,1)*OFFSET(I$2,(ROW()-$M$16)*4,0,4,1))/SUM(OFFSET($C$2,(ROW()-$M$16)*4,0,4,1))</f>
+        <v>81</v>
       </c>
       <c r="J17" s="1" cm="1">
-        <f t="array" aca="1" ref="J17" ca="1">SUM(OFFSET($C$2,(ROW()-$M$15)*4,0,4,1)*OFFSET(J$2,(ROW()-$M$15)*4,0,4,1))/SUM(OFFSET($C$2,(ROW()-$M$15)*4,0,4,1))</f>
+        <f t="array" aca="1" ref="J17" ca="1">SUM(OFFSET($C$2,(ROW()-$M$16)*4,0,4,1)*OFFSET(J$2,(ROW()-$M$16)*4,0,4,1))/SUM(OFFSET($C$2,(ROW()-$M$16)*4,0,4,1))</f>
         <v>150</v>
       </c>
       <c r="K17" s="1">
-        <f ca="1">AVERAGE(OFFSET(K$2,(ROW()-$M$15)*4,0,4,1))</f>
-        <v>6.5</v>
+        <f ca="1">AVERAGE(OFFSET(K$2,(ROW()-$M$16)*4,0,4,1))</f>
+        <v>2.5</v>
       </c>
       <c r="L17" s="1" cm="1">
-        <f t="array" aca="1" ref="L17" ca="1">STDEV(OFFSET($C$2,(ROW()-$M$15)*4,0,4,1)*OFFSET(D$2,(ROW()-$M$15)*4,0,4,1))</f>
-        <v>1.0017871400443972E-2</v>
+        <f t="array" aca="1" ref="L17" ca="1">STDEV(OFFSET($C$2,(ROW()-$M$16)*4,0,4,1)*OFFSET(D$2,(ROW()-$M$16)*4,0,4,1))</f>
+        <v>9.9619066113537085E-3</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <f ca="1">AVERAGE(OFFSET(A$2,(ROW()-$M$16)*4,0,4,1))</f>
+        <v>2</v>
       </c>
       <c r="B18" s="1">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">AVERAGE(OFFSET(B$2,(ROW()-$M$16)*4,0,4,1))</f>
         <v>0.5</v>
       </c>
       <c r="C18" s="1">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">AVERAGE(OFFSET(C$2,(ROW()-$M$16)*4,0,4,1))</f>
         <v>1</v>
       </c>
       <c r="D18" s="1" cm="1">
-        <f t="array" aca="1" ref="D18" ca="1">SUM(OFFSET($C$2,(ROW()-$M$15)*4,0,4,1)*OFFSET(D$2,(ROW()-$M$15)*4,0,4,1))/SUM(OFFSET($C$2,(ROW()-$M$15)*4,0,4,1))</f>
-        <v>0.68178125000000001</v>
+        <f t="array" aca="1" ref="D18" ca="1">SUM(OFFSET($C$2,(ROW()-$M$16)*4,0,4,1)*OFFSET(D$2,(ROW()-$M$16)*4,0,4,1))/SUM(OFFSET($C$2,(ROW()-$M$16)*4,0,4,1))</f>
+        <v>0.66817187499999997</v>
       </c>
       <c r="E18" s="1" cm="1">
-        <f t="array" aca="1" ref="E18" ca="1">SUM(OFFSET($C$2,(ROW()-$M$15)*4,0,4,1)*OFFSET(E$2,(ROW()-$M$15)*4,0,4,1))/SUM(OFFSET($C$2,(ROW()-$M$15)*4,0,4,1))</f>
-        <v>6.5328181300262704</v>
+        <f t="array" aca="1" ref="E18" ca="1">SUM(OFFSET($C$2,(ROW()-$M$16)*4,0,4,1)*OFFSET(E$2,(ROW()-$M$16)*4,0,4,1))/SUM(OFFSET($C$2,(ROW()-$M$16)*4,0,4,1))</f>
+        <v>6.1592000000000002</v>
       </c>
       <c r="F18" s="1">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">AVERAGE(OFFSET(F$2,(ROW()-$M$16)*4,0,4,1))</f>
         <v>1</v>
       </c>
       <c r="G18" s="1">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">AVERAGE(OFFSET(G$2,(ROW()-$M$16)*4,0,4,1))</f>
         <v>1</v>
       </c>
       <c r="H18" s="1" cm="1">
-        <f t="array" aca="1" ref="H18" ca="1">SUM(OFFSET($C$2,(ROW()-$M$15)*4,0,4,1)*OFFSET(H$2,(ROW()-$M$15)*4,0,4,1))/SUM(OFFSET($C$2,(ROW()-$M$15)*4,0,4,1))</f>
-        <v>16.111178576946198</v>
+        <f t="array" aca="1" ref="H18" ca="1">SUM(OFFSET($C$2,(ROW()-$M$16)*4,0,4,1)*OFFSET(H$2,(ROW()-$M$16)*4,0,4,1))/SUM(OFFSET($C$2,(ROW()-$M$16)*4,0,4,1))</f>
+        <v>10.590972065925573</v>
       </c>
       <c r="I18" s="1" cm="1">
-        <f t="array" aca="1" ref="I18" ca="1">SUM(OFFSET($C$2,(ROW()-$M$15)*4,0,4,1)*OFFSET(I$2,(ROW()-$M$15)*4,0,4,1))/SUM(OFFSET($C$2,(ROW()-$M$15)*4,0,4,1))</f>
-        <v>82.5</v>
+        <f t="array" aca="1" ref="I18" ca="1">SUM(OFFSET($C$2,(ROW()-$M$16)*4,0,4,1)*OFFSET(I$2,(ROW()-$M$16)*4,0,4,1))/SUM(OFFSET($C$2,(ROW()-$M$16)*4,0,4,1))</f>
+        <v>79.75</v>
       </c>
       <c r="J18" s="1" cm="1">
-        <f t="array" aca="1" ref="J18" ca="1">SUM(OFFSET($C$2,(ROW()-$M$15)*4,0,4,1)*OFFSET(J$2,(ROW()-$M$15)*4,0,4,1))/SUM(OFFSET($C$2,(ROW()-$M$15)*4,0,4,1))</f>
+        <f t="array" aca="1" ref="J18" ca="1">SUM(OFFSET($C$2,(ROW()-$M$16)*4,0,4,1)*OFFSET(J$2,(ROW()-$M$16)*4,0,4,1))/SUM(OFFSET($C$2,(ROW()-$M$16)*4,0,4,1))</f>
         <v>150</v>
       </c>
       <c r="K18" s="1">
-        <f ca="1">AVERAGE(OFFSET(K$2,(ROW()-$M$15)*4,0,4,1))</f>
-        <v>10.5</v>
+        <f ca="1">AVERAGE(OFFSET(K$2,(ROW()-$M$16)*4,0,4,1))</f>
+        <v>14.5</v>
       </c>
       <c r="L18" s="1" cm="1">
-        <f t="array" aca="1" ref="L18" ca="1">STDEV(OFFSET($C$2,(ROW()-$M$15)*4,0,4,1)*OFFSET(D$2,(ROW()-$M$15)*4,0,4,1))</f>
-        <v>7.9432393948145174E-3</v>
+        <f t="array" aca="1" ref="L18" ca="1">STDEV(OFFSET($C$2,(ROW()-$M$16)*4,0,4,1)*OFFSET(D$2,(ROW()-$M$16)*4,0,4,1))</f>
+        <v>2.6040802068980757E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <f ca="1">AVERAGE(OFFSET(A$2,(ROW()-$M$16)*4,0,4,1))</f>
+        <v>2</v>
+      </c>
+      <c r="B19" s="1">
+        <f ca="1">AVERAGE(OFFSET(B$2,(ROW()-$M$16)*4,0,4,1))</f>
+        <v>0.5</v>
+      </c>
+      <c r="C19" s="1">
+        <f ca="1">AVERAGE(OFFSET(C$2,(ROW()-$M$16)*4,0,4,1))</f>
+        <v>1</v>
+      </c>
+      <c r="D19" s="1" cm="1">
+        <f t="array" aca="1" ref="D19" ca="1">SUM(OFFSET($C$2,(ROW()-$M$16)*4,0,4,1)*OFFSET(D$2,(ROW()-$M$16)*4,0,4,1))/SUM(OFFSET($C$2,(ROW()-$M$16)*4,0,4,1))</f>
+        <v>0.6833125000000001</v>
+      </c>
+      <c r="E19" s="1" cm="1">
+        <f t="array" aca="1" ref="E19" ca="1">SUM(OFFSET($C$2,(ROW()-$M$16)*4,0,4,1)*OFFSET(E$2,(ROW()-$M$16)*4,0,4,1))/SUM(OFFSET($C$2,(ROW()-$M$16)*4,0,4,1))</f>
+        <v>17.420848346736701</v>
+      </c>
+      <c r="F19" s="1">
+        <f ca="1">AVERAGE(OFFSET(F$2,(ROW()-$M$16)*4,0,4,1))</f>
+        <v>1</v>
+      </c>
+      <c r="G19" s="1">
+        <f ca="1">AVERAGE(OFFSET(G$2,(ROW()-$M$16)*4,0,4,1))</f>
+        <v>1</v>
+      </c>
+      <c r="H19" s="1" cm="1">
+        <f t="array" aca="1" ref="H19" ca="1">SUM(OFFSET($C$2,(ROW()-$M$16)*4,0,4,1)*OFFSET(H$2,(ROW()-$M$16)*4,0,4,1))/SUM(OFFSET($C$2,(ROW()-$M$16)*4,0,4,1))</f>
+        <v>10.777053654193825</v>
+      </c>
+      <c r="I19" s="1" cm="1">
+        <f t="array" aca="1" ref="I19" ca="1">SUM(OFFSET($C$2,(ROW()-$M$16)*4,0,4,1)*OFFSET(I$2,(ROW()-$M$16)*4,0,4,1))/SUM(OFFSET($C$2,(ROW()-$M$16)*4,0,4,1))</f>
+        <v>90</v>
+      </c>
+      <c r="J19" s="1" cm="1">
+        <f t="array" aca="1" ref="J19" ca="1">SUM(OFFSET($C$2,(ROW()-$M$16)*4,0,4,1)*OFFSET(J$2,(ROW()-$M$16)*4,0,4,1))/SUM(OFFSET($C$2,(ROW()-$M$16)*4,0,4,1))</f>
+        <v>150</v>
+      </c>
+      <c r="K19" s="1">
+        <f ca="1">AVERAGE(OFFSET(K$2,(ROW()-$M$16)*4,0,4,1))</f>
+        <v>18.5</v>
+      </c>
+      <c r="L19" s="1" cm="1">
+        <f t="array" aca="1" ref="L19" ca="1">STDEV(OFFSET($C$2,(ROW()-$M$16)*4,0,4,1)*OFFSET(D$2,(ROW()-$M$16)*4,0,4,1))</f>
+        <v>3.9001201904556668E-3</v>
       </c>
     </row>
   </sheetData>
